--- a/Office/TeamHub详细设计-概要.xlsx
+++ b/Office/TeamHub详细设计-概要.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="简述" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="162">
   <si>
     <t>TeamHub详细设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,6 +677,34 @@
   </si>
   <si>
     <t>ITF = 接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPAG010130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件管理主界面（FileMainPage）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maple S.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTXT010131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址栏控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AddressBox)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maple S.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1086,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1143,14 +1171,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1200,26 +1249,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1923,7 +1969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:BA119"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Z51" sqref="Z51"/>
     </sheetView>
   </sheetViews>
@@ -2370,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2386,48 +2432,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38" t="s">
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="37" t="s">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="41">
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="48">
         <v>1</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="42"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="49"/>
       <c r="AG1" s="26"/>
       <c r="AH1" s="26"/>
       <c r="AI1" s="26"/>
@@ -2451,38 +2497,38 @@
       <c r="BA1" s="28"/>
     </row>
     <row r="2" spans="1:53" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="44"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="51"/>
       <c r="AG2" s="29"/>
       <c r="AH2" s="29"/>
       <c r="AI2" s="29"/>
@@ -2506,69 +2552,69 @@
       <c r="BA2" s="31"/>
     </row>
     <row r="3" spans="1:53" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="35" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="34" t="s">
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="57" t="s">
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="58"/>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="58"/>
-      <c r="AS3" s="58"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="57" t="s">
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="58"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="58"/>
-      <c r="BA3" s="59"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="43"/>
     </row>
     <row r="4" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
@@ -2625,15 +2671,15 @@
       <c r="AR4" s="17"/>
       <c r="AS4" s="17"/>
       <c r="AT4" s="17"/>
-      <c r="AU4" s="53">
+      <c r="AU4" s="34">
         <v>42455</v>
       </c>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
     </row>
     <row r="5" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
@@ -2690,30 +2736,160 @@
       <c r="AR5" s="20"/>
       <c r="AS5" s="20"/>
       <c r="AT5" s="20"/>
-      <c r="AU5" s="55">
+      <c r="AU5" s="36">
         <v>42455</v>
       </c>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="56"/>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="56"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+    </row>
+    <row r="6" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="61">
+        <v>42459</v>
+      </c>
+      <c r="AV6" s="62"/>
+      <c r="AW6" s="62"/>
+      <c r="AX6" s="62"/>
+      <c r="AY6" s="62"/>
+      <c r="AZ6" s="62"/>
+      <c r="BA6" s="63"/>
+    </row>
+    <row r="7" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="61">
+        <v>42459</v>
+      </c>
+      <c r="AV7" s="66"/>
+      <c r="AW7" s="66"/>
+      <c r="AX7" s="66"/>
+      <c r="AY7" s="66"/>
+      <c r="AZ7" s="66"/>
+      <c r="BA7" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="AU6:BA6"/>
+    <mergeCell ref="AU7:BA7"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="U1:X2"/>
+    <mergeCell ref="Y1:AF2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:N2"/>
+    <mergeCell ref="O1:T2"/>
     <mergeCell ref="AU4:BA4"/>
     <mergeCell ref="AU5:BA5"/>
     <mergeCell ref="H3:V3"/>
     <mergeCell ref="W3:AL3"/>
     <mergeCell ref="AM3:AT3"/>
     <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="U1:X2"/>
-    <mergeCell ref="Y1:AF2"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:N2"/>
-    <mergeCell ref="O1:T2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Office/TeamHub详细设计-概要.xlsx
+++ b/Office/TeamHub详细设计-概要.xlsx
@@ -818,7 +818,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1110,11 +1110,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1142,9 +1155,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1165,16 +1175,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1183,15 +1262,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1201,71 +1271,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,19 +1599,19 @@
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="3:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="S2" s="1"/>
@@ -1609,17 +1628,17 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="3:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1638,16 +1657,16 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="3:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="3:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1981,28 +2000,28 @@
       </c>
     </row>
     <row r="3" spans="3:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="3:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="6" spans="3:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
@@ -2419,7 +2438,7 @@
   <dimension ref="A1:BA7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2474,27 +2493,27 @@
       <c r="AD1" s="48"/>
       <c r="AE1" s="48"/>
       <c r="AF1" s="49"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="28"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="27"/>
     </row>
     <row r="2" spans="1:53" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55"/>
@@ -2529,103 +2548,103 @@
       <c r="AD2" s="50"/>
       <c r="AE2" s="50"/>
       <c r="AF2" s="51"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="31"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="30"/>
     </row>
     <row r="3" spans="1:53" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="40" t="s">
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="41" t="s">
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="41" t="s">
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="43"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="64"/>
     </row>
     <row r="4" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="17" t="s">
         <v>100</v>
       </c>
@@ -2671,18 +2690,18 @@
       <c r="AR4" s="17"/>
       <c r="AS4" s="17"/>
       <c r="AT4" s="17"/>
-      <c r="AU4" s="34">
+      <c r="AU4" s="66">
         <v>42455</v>
       </c>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
+      <c r="AV4" s="67"/>
+      <c r="AW4" s="67"/>
+      <c r="AX4" s="67"/>
+      <c r="AY4" s="67"/>
+      <c r="AZ4" s="67"/>
+      <c r="BA4" s="68"/>
     </row>
     <row r="5" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="31" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="20"/>
@@ -2736,18 +2755,18 @@
       <c r="AR5" s="20"/>
       <c r="AS5" s="20"/>
       <c r="AT5" s="20"/>
-      <c r="AU5" s="36">
+      <c r="AU5" s="60">
         <v>42455</v>
       </c>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
+      <c r="AV5" s="61"/>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="61"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="69"/>
     </row>
     <row r="6" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="31" t="s">
         <v>155</v>
       </c>
       <c r="B6" s="20"/>
@@ -2756,7 +2775,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="31" t="s">
         <v>156</v>
       </c>
       <c r="I6" s="20"/>
@@ -2773,7 +2792,7 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="21"/>
-      <c r="W6" s="60"/>
+      <c r="W6" s="31"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
@@ -2789,7 +2808,7 @@
       <c r="AJ6" s="20"/>
       <c r="AK6" s="20"/>
       <c r="AL6" s="21"/>
-      <c r="AM6" s="60"/>
+      <c r="AM6" s="31"/>
       <c r="AN6" s="20" t="s">
         <v>157</v>
       </c>
@@ -2799,18 +2818,18 @@
       <c r="AR6" s="20"/>
       <c r="AS6" s="20"/>
       <c r="AT6" s="21"/>
-      <c r="AU6" s="61">
+      <c r="AU6" s="36">
         <v>42459</v>
       </c>
-      <c r="AV6" s="62"/>
-      <c r="AW6" s="62"/>
-      <c r="AX6" s="62"/>
-      <c r="AY6" s="62"/>
-      <c r="AZ6" s="62"/>
-      <c r="BA6" s="63"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37"/>
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="37"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="38"/>
     </row>
     <row r="7" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="31" t="s">
         <v>158</v>
       </c>
       <c r="B7" s="20"/>
@@ -2819,7 +2838,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="32" t="s">
         <v>159</v>
       </c>
       <c r="I7" s="20"/>
@@ -2855,7 +2874,7 @@
       <c r="AK7" s="20"/>
       <c r="AL7" s="21"/>
       <c r="AM7" s="20"/>
-      <c r="AN7" s="65" t="s">
+      <c r="AN7" s="33" t="s">
         <v>161</v>
       </c>
       <c r="AO7" s="20"/>
@@ -2864,15 +2883,15 @@
       <c r="AR7" s="20"/>
       <c r="AS7" s="20"/>
       <c r="AT7" s="21"/>
-      <c r="AU7" s="61">
+      <c r="AU7" s="36">
         <v>42459</v>
       </c>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="67"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2908,22 +2927,22 @@
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="3" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="6" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E6" t="s">

--- a/Office/TeamHub详细设计-概要.xlsx
+++ b/Office/TeamHub详细设计-概要.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="176">
   <si>
     <t>TeamHub详细设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,19 +692,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>地址栏控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AddressBox)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maple S.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件下载对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(FileDownDLG）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDLG010133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(FileUpDLG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件下载管理控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（FileManage)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示正在进行的任务和已完成的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTAB010134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maple S.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(FileViewer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFRM010135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件预览控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CTXT010131</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地址栏控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(AddressBox)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maple S.</t>
+    <t>WDLG010132</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,15 +866,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1110,11 +1178,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1142,15 +1223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1165,16 +1237,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1183,15 +1350,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,72 +1358,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,19 +1672,19 @@
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="3:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="S2" s="1"/>
@@ -1609,17 +1701,17 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="3:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1638,16 +1730,16 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="3:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="3:36" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1969,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:BA119"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z51" sqref="Z51"/>
+    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1981,28 +2073,28 @@
       </c>
     </row>
     <row r="3" spans="3:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="3:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="6" spans="3:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
@@ -2416,10 +2508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA7"/>
+  <dimension ref="A1:CN19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2431,201 +2523,201 @@
     <col min="47" max="47" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:92" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="44" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="44" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="48">
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="58">
         <v>1</v>
       </c>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="28"/>
-    </row>
-    <row r="2" spans="1:53" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="31"/>
-    </row>
-    <row r="3" spans="1:53" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="25"/>
+    </row>
+    <row r="2" spans="1:92" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="28"/>
+    </row>
+    <row r="3" spans="1:92" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="40" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="41" t="s">
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="41" t="s">
+      <c r="AN3" s="75"/>
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="75"/>
+      <c r="AS3" s="75"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="43"/>
-    </row>
-    <row r="4" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="75"/>
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="75"/>
+      <c r="BA3" s="76"/>
+    </row>
+    <row r="4" spans="1:92" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="17" t="s">
         <v>100</v>
       </c>
@@ -2671,17 +2763,17 @@
       <c r="AR4" s="17"/>
       <c r="AS4" s="17"/>
       <c r="AT4" s="17"/>
-      <c r="AU4" s="34">
+      <c r="AU4" s="70">
         <v>42455</v>
       </c>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-    </row>
-    <row r="5" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="71"/>
+    </row>
+    <row r="5" spans="1:92" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>103</v>
       </c>
@@ -2736,18 +2828,18 @@
       <c r="AR5" s="20"/>
       <c r="AS5" s="20"/>
       <c r="AT5" s="20"/>
-      <c r="AU5" s="36">
+      <c r="AU5" s="72">
         <v>42455</v>
       </c>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-    </row>
-    <row r="6" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60" t="s">
+      <c r="AV5" s="73"/>
+      <c r="AW5" s="73"/>
+      <c r="AX5" s="73"/>
+      <c r="AY5" s="73"/>
+      <c r="AZ5" s="73"/>
+      <c r="BA5" s="73"/>
+    </row>
+    <row r="6" spans="1:92" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
         <v>155</v>
       </c>
       <c r="B6" s="20"/>
@@ -2756,7 +2848,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="29" t="s">
         <v>156</v>
       </c>
       <c r="I6" s="20"/>
@@ -2773,7 +2865,7 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="21"/>
-      <c r="W6" s="60"/>
+      <c r="W6" s="29"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
@@ -2789,7 +2881,7 @@
       <c r="AJ6" s="20"/>
       <c r="AK6" s="20"/>
       <c r="AL6" s="21"/>
-      <c r="AM6" s="60"/>
+      <c r="AM6" s="29"/>
       <c r="AN6" s="20" t="s">
         <v>157</v>
       </c>
@@ -2799,97 +2891,752 @@
       <c r="AR6" s="20"/>
       <c r="AS6" s="20"/>
       <c r="AT6" s="21"/>
-      <c r="AU6" s="61">
+      <c r="AU6" s="47">
         <v>42459</v>
       </c>
-      <c r="AV6" s="62"/>
-      <c r="AW6" s="62"/>
-      <c r="AX6" s="62"/>
-      <c r="AY6" s="62"/>
-      <c r="AZ6" s="62"/>
-      <c r="BA6" s="63"/>
-    </row>
-    <row r="7" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="48"/>
+      <c r="AZ6" s="48"/>
+      <c r="BA6" s="48"/>
+    </row>
+    <row r="7" spans="1:92" s="32" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="64" t="s">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20" t="s">
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="65" t="s">
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="49">
+        <v>42459</v>
+      </c>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="50"/>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="50"/>
+      <c r="AZ7" s="50"/>
+      <c r="BA7" s="50"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="36"/>
+      <c r="BK7" s="36"/>
+      <c r="BL7" s="36"/>
+      <c r="BM7" s="36"/>
+      <c r="BN7" s="36"/>
+      <c r="BO7" s="36"/>
+      <c r="BP7" s="36"/>
+      <c r="BQ7" s="36"/>
+      <c r="BR7" s="36"/>
+      <c r="BS7" s="36"/>
+      <c r="BT7" s="36"/>
+      <c r="BU7" s="36"/>
+      <c r="BV7" s="36"/>
+      <c r="BW7" s="36"/>
+      <c r="BX7" s="36"/>
+      <c r="BY7" s="36"/>
+      <c r="BZ7" s="36"/>
+      <c r="CA7" s="36"/>
+      <c r="CB7" s="36"/>
+      <c r="CC7" s="36"/>
+      <c r="CD7" s="36"/>
+      <c r="CE7" s="36"/>
+      <c r="CF7" s="36"/>
+      <c r="CG7" s="36"/>
+      <c r="CH7" s="36"/>
+      <c r="CI7" s="36"/>
+      <c r="CJ7" s="36"/>
+      <c r="CK7" s="36"/>
+      <c r="CL7" s="36"/>
+      <c r="CM7" s="36"/>
+      <c r="CN7" s="36"/>
+    </row>
+    <row r="8" spans="1:92" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="61">
-        <v>42459</v>
-      </c>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="67"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="41"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="31"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="31"/>
+      <c r="AT8" s="41"/>
+      <c r="AU8" s="45">
+        <v>42462</v>
+      </c>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="46"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="46"/>
+    </row>
+    <row r="9" spans="1:92" s="42" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="45">
+        <v>42462</v>
+      </c>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="46"/>
+    </row>
+    <row r="10" spans="1:92" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="35"/>
+      <c r="AU10" s="49">
+        <v>42462</v>
+      </c>
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="50"/>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="50"/>
+      <c r="BA10" s="50"/>
+    </row>
+    <row r="11" spans="1:92" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="49">
+        <v>42462</v>
+      </c>
+      <c r="AV11" s="50"/>
+      <c r="AW11" s="50"/>
+      <c r="AX11" s="50"/>
+      <c r="AY11" s="50"/>
+      <c r="AZ11" s="50"/>
+      <c r="BA11" s="50"/>
+    </row>
+    <row r="13" spans="1:92" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+    </row>
+    <row r="14" spans="1:92" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+    </row>
+    <row r="15" spans="1:92" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="36"/>
+    </row>
+    <row r="16" spans="1:92" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+    </row>
+    <row r="17" spans="1:48" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+    </row>
+    <row r="18" spans="1:48" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="40"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="40"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+    </row>
+    <row r="19" spans="1:48" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="40"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="AU6:BA6"/>
-    <mergeCell ref="AU7:BA7"/>
+  <mergeCells count="18">
+    <mergeCell ref="AU4:BA4"/>
+    <mergeCell ref="AU5:BA5"/>
+    <mergeCell ref="H3:V3"/>
+    <mergeCell ref="W3:AL3"/>
+    <mergeCell ref="AM3:AT3"/>
+    <mergeCell ref="AU3:BA3"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="U1:X2"/>
     <mergeCell ref="Y1:AF2"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="K1:N2"/>
     <mergeCell ref="O1:T2"/>
-    <mergeCell ref="AU4:BA4"/>
-    <mergeCell ref="AU5:BA5"/>
-    <mergeCell ref="H3:V3"/>
-    <mergeCell ref="W3:AL3"/>
-    <mergeCell ref="AM3:AT3"/>
-    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU8:BA8"/>
+    <mergeCell ref="AU9:BA9"/>
+    <mergeCell ref="AU10:BA10"/>
+    <mergeCell ref="AU11:BA11"/>
+    <mergeCell ref="AU6:BA6"/>
+    <mergeCell ref="AU7:BA7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2908,22 +3655,22 @@
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="3" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="6" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E6" t="s">
